--- a/~2022-10-31 1인프로젝트/기획서 ~9.26/산출물제출목록-MVP최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/기획서 ~9.26/산출물제출목록-MVP최동영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\기획서 ~9.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F953F7-4CE7-40A2-AED2-E3493883E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB56E2-9024-490B-82EE-DCD614C39C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="3615" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21060" yWindow="1215" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발관리" sheetId="19" r:id="rId1"/>
@@ -143,19 +143,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>통합테스트 결과</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 구성도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합테스트 시나리오</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -169,6 +157,18 @@
   <si>
     <t>디자인 계획서</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위테스트 시나리오</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위테스트 결과</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,37 +423,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,7 +951,7 @@
   <dimension ref="A5:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -968,38 +971,38 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1014,8 +1017,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1028,13 +1031,17 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>11</v>
@@ -1042,14 +1049,10 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -1061,12 +1064,12 @@
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>11</v>
@@ -1074,29 +1077,29 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
@@ -1119,18 +1122,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F14 C15:F15 C8:F13">
@@ -1150,10 +1153,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{E1AC3D49-F823-4157-BC6A-03F36ABF1CBB}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{52CE50B6-D23E-4231-B99A-430D7EED3187}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{ECD8C5F7-B742-41CF-9299-25BC58FD4AA5}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{5AB836F3-AEFE-4135-887D-39672D7D177C}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{52CE50B6-D23E-4231-B99A-430D7EED3187}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{ECD8C5F7-B742-41CF-9299-25BC58FD4AA5}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{5AB836F3-AEFE-4135-887D-39672D7D177C}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{57ADA43C-6F79-403C-9BD0-D680DB50A688}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/~2022-10-31 1인프로젝트/기획서 ~9.26/산출물제출목록-MVP최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/기획서 ~9.26/산출물제출목록-MVP최동영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\기획서 ~9.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB56E2-9024-490B-82EE-DCD614C39C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0220CF95-BC99-46BA-AA46-9F0E2B07227D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="1215" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11910" yWindow="4860" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발관리" sheetId="19" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>단 계</t>
   </si>
@@ -423,6 +423,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,31 +447,16 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,38 +971,38 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1017,8 +1017,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1031,10 +1031,10 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1049,8 +1049,8 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
@@ -1063,8 +1063,8 @@
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1077,10 +1077,10 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1089,19 +1089,23 @@
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="13.5">
@@ -1122,21 +1126,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F14 C15:F15 C8:F13">
+  <conditionalFormatting sqref="C15:F15 C8:F13 E14:F14">
     <cfRule type="expression" dxfId="2" priority="31">
       <formula>$E8="비공식"</formula>
     </cfRule>
@@ -1146,24 +1150,21 @@
       <formula>$E14="비공식"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$E14="비공식"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="E9" r:id="rId2" xr:uid="{52CE50B6-D23E-4231-B99A-430D7EED3187}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{ECD8C5F7-B742-41CF-9299-25BC58FD4AA5}"/>
     <hyperlink ref="E12" r:id="rId4" xr:uid="{5AB836F3-AEFE-4135-887D-39672D7D177C}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{57ADA43C-6F79-403C-9BD0-D680DB50A688}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{78046005-28A3-44D0-9DC3-2650789A6697}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{CABBDF86-629F-465B-BF57-AF1554881387}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;LMVP 게시판 구축&amp;R산출물적용계획표</oddHeader>
   </headerFooter>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>